--- a/Stats.xlsx
+++ b/Stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Self-Learning\Columbia Fintech BootsCamp\Online Modules\Project_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2A2F15-5656-4815-A902-1F3B4628C711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F178AD3D-C27B-492B-811F-0C0E2D49958B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2835" yWindow="1395" windowWidth="17730" windowHeight="14430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15465" yWindow="1320" windowWidth="17730" windowHeight="14430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>BaseLine</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>AO</t>
+  </si>
+  <si>
+    <t>SMA, AO, ER,CMO</t>
   </si>
 </sst>
 </file>
@@ -419,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -565,6 +568,14 @@
         <v>18</v>
       </c>
     </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>0.56858640909194902</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
